--- a/tabular/eve/NEW_ALL_LOCI_CONSOLIDATED.xlsx
+++ b/tabular/eve/NEW_ALL_LOCI_CONSOLIDATED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83343FE3-4A3A-9249-9A85-C869BEDFC800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B01E45F-6176-0242-8269-C99435C2E81F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="3700" windowWidth="28040" windowHeight="17440" xr2:uid="{94FC4761-51CF-184C-A79C-4D9F74EDC904}"/>
   </bookViews>
@@ -7072,8 +7072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1381117D-7410-CA45-A00D-1DCC9ADDCDAD}">
   <dimension ref="A1:O596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="F288" sqref="F288"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30788,10 +30788,10 @@
       <c r="B590" t="s">
         <v>1526</v>
       </c>
-      <c r="D590" s="6" t="s">
+      <c r="D590" s="12" t="s">
         <v>2189</v>
       </c>
-      <c r="E590" s="6"/>
+      <c r="E590" s="12"/>
       <c r="G590" t="s">
         <v>1537</v>
       </c>
@@ -30827,10 +30827,10 @@
       <c r="B591" t="s">
         <v>2172</v>
       </c>
-      <c r="D591" s="6" t="s">
+      <c r="D591" s="12" t="s">
         <v>2189</v>
       </c>
-      <c r="E591" s="6"/>
+      <c r="E591" s="12"/>
       <c r="G591" t="s">
         <v>2176</v>
       </c>
